--- a/result.xlsx
+++ b/result.xlsx
@@ -613,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -636,7 +636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -659,7 +659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -682,7 +682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -705,7 +705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -728,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -751,7 +751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -774,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -797,7 +797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -820,7 +820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
